--- a/summarytable.xlsx
+++ b/summarytable.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardchoi/Desktop/diabetes classification project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E82833B-52B8-1F48-A67D-460516719DA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4DD954-51A3-C34A-8C41-1A1B85B8F57A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2920" windowWidth="28800" windowHeight="18000" xr2:uid="{E7461264-E596-3843-80FD-631B9A789765}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$17</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -560,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D6560B-E50C-2145-BE4B-717F7CBF0219}">
   <dimension ref="B3:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="74" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,5 +876,6 @@
     <mergeCell ref="B11:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="44" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>